--- a/3_output/tablas/3_sem_tables.xlsx
+++ b/3_output/tablas/3_sem_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1620" documentId="11_AD4D2F04E46CFB4ACB3E206C1D51D590683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC839D45-5480-462C-94FE-325D7F5FE55E}"/>
+  <xr:revisionPtr revIDLastSave="1629" documentId="11_AD4D2F04E46CFB4ACB3E206C1D51D590683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48CF412-6F01-45D3-9B9B-E4C0BF85EBFA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="887" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="705">
   <si>
     <t>Regression Paths</t>
   </si>
@@ -2243,7 +2243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2368,20 +2368,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2546,6 +2537,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2566,27 +2566,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2875,10 +2854,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,42 +2869,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="56" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="66" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="69" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -3101,269 +3080,200 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="7" t="str">
-        <f>IF(original_apbi!A25="c1+(a1*b1)","Segregación ~ Reputación",0)</f>
-        <v>Segregación ~ Reputación</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C25,original_apbi!F25, " ","(",original_apbi!D25,")")</f>
-        <v>-0.254 (0.130)</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C25,original_soci!F25, " ","(",original_soci!D25,")")</f>
-        <v>-0.296 (0.170)</v>
+        <f>IF(original_apbi!A4="repbi","Reputación percibida",0)</f>
+        <v>Reputación percibida</v>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>_xlfn.CONCAT(original_apbi!C4,original_apbi!F4, " ","(",original_apbi!D4,")")</f>
+        <v>0.262*** (0.041)</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f>_xlfn.CONCAT(original_soci!C4,original_soci!F4, " ","(",original_soci!D4,")")</f>
+        <v>0.121** (0.044)</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="7" t="str">
-        <f>IF(original_apbi!A26="c1+(a2*b3)","Segregación ~ Seguridad",0)</f>
-        <v>Segregación ~ Seguridad</v>
-      </c>
-      <c r="C19" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C26,original_apbi!F26, " ","(",original_apbi!D26,")")</f>
-        <v>-0.123 (0.130)</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C26,original_soci!F26, " ","(",original_soci!D26,")")</f>
-        <v>-0.232 (0.175)</v>
+        <f>IF(original_apbi!A5="sacci","Satisfacción residencial",0)</f>
+        <v>Satisfacción residencial</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>_xlfn.CONCAT(original_apbi!C5,original_apbi!F5, " ","(",original_apbi!D5,")")</f>
+        <v>0.218*** (0.040)</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f>_xlfn.CONCAT(original_soci!C5,original_soci!F5, " ","(",original_soci!D5,")")</f>
+        <v>0.171*** (0.043)</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="7" t="str">
-        <f>IF(original_apbi!A27="c2+(a3*b2)","Vitalidad ~ Satisfacción",0)</f>
-        <v>Vitalidad ~ Satisfacción</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C27,original_apbi!F27, " ","(",original_apbi!D27,")")</f>
-        <v>0.214 (0.130)</v>
-      </c>
-      <c r="D20" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C27,original_soci!F27, " ","(",original_soci!D27,")")</f>
-        <v>0.139 (0.176)</v>
+        <f>IF(original_apbi!A6="segui","Sentimiento de seguridad",0)</f>
+        <v>Sentimiento de seguridad</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>_xlfn.CONCAT(original_apbi!C6,original_apbi!F6, " ","(",original_apbi!D6,")")</f>
+        <v>0.220*** (0.041)</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f>_xlfn.CONCAT(original_soci!C6,original_soci!F6, " ","(",original_soci!D6,")")</f>
+        <v>0.217*** (0.044)</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="7" t="str">
-        <f>IF(original_apbi!A28="c2+(a4*b3)","Vitalidad ~ Seguridad",0)</f>
-        <v>Vitalidad ~ Seguridad</v>
+        <f>IF(original_apbi!A7="edadi","Edad del entrevistado",0)</f>
+        <v>Edad del entrevistado</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C28,original_apbi!F28, " ","(",original_apbi!D28,")")</f>
-        <v>0.135 (0.131)</v>
+        <f>_xlfn.CONCAT(original_apbi!C7,original_apbi!F7, " ","(",original_apbi!D7,")")</f>
+        <v>0.033 (0.042)</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C28,original_soci!F28, " ","(",original_soci!D28,")")</f>
-        <v>0.061 (0.178)</v>
+        <f>_xlfn.CONCAT(original_soci!C7," ",original_soci!F7, " ","(",original_soci!D7,")")</f>
+        <v>-0.087  (0.046)</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="str">
+        <f>IF(original_apbi!A8="educi","Nivel educacional",0)</f>
+        <v>Nivel educacional</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <f>_xlfn.CONCAT(original_apbi!C8,original_apbi!F8, " ","(",original_apbi!D8,")")</f>
+        <v>-0.090* (0.040)</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>_xlfn.CONCAT(original_soci!C8," ",original_soci!F8, " ","(",original_soci!D8,")")</f>
+        <v>-0.016  (0.044)</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="7" t="str">
-        <f>IF(original_apbi!A4="repbi","Reputación percibida",0)</f>
-        <v>Reputación percibida</v>
-      </c>
-      <c r="C23" s="14" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C4,original_apbi!F4, " ","(",original_apbi!D4,")")</f>
-        <v>0.262*** (0.041)</v>
-      </c>
-      <c r="D23" s="14" t="str">
-        <f>_xlfn.CONCAT(original_soci!C4,original_soci!F4, " ","(",original_soci!D4,")")</f>
-        <v>0.121** (0.044)</v>
+        <f>IF(original_apbi!A9="essui","Estatus social subjetivo",0)</f>
+        <v>Estatus social subjetivo</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f>_xlfn.CONCAT(original_apbi!C9,original_apbi!F9, " ","(",original_apbi!D9,")")</f>
+        <v>0.018 (0.037)</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>_xlfn.CONCAT(original_soci!C9," ",original_soci!F9, " ","(",original_soci!D9,")")</f>
+        <v>0.030  (0.041)</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="str">
-        <f>IF(original_apbi!A5="sacci","Satisfacción residencial",0)</f>
-        <v>Satisfacción residencial</v>
-      </c>
-      <c r="C24" s="14" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C5,original_apbi!F5, " ","(",original_apbi!D5,")")</f>
-        <v>0.218*** (0.040)</v>
-      </c>
-      <c r="D24" s="14" t="str">
-        <f>_xlfn.CONCAT(original_soci!C5,original_soci!F5, " ","(",original_soci!D5,")")</f>
-        <v>0.171*** (0.043)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7" t="str">
-        <f>IF(original_apbi!A6="segui","Sentimiento de seguridad",0)</f>
-        <v>Sentimiento de seguridad</v>
-      </c>
-      <c r="C25" s="14" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C6,original_apbi!F6, " ","(",original_apbi!D6,")")</f>
-        <v>0.220*** (0.041)</v>
-      </c>
-      <c r="D25" s="14" t="str">
-        <f>_xlfn.CONCAT(original_soci!C6,original_soci!F6, " ","(",original_soci!D6,")")</f>
-        <v>0.217*** (0.044)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
-      <c r="B26" s="7" t="str">
-        <f>IF(original_apbi!A7="edadi","Edad del entrevistado",0)</f>
-        <v>Edad del entrevistado</v>
-      </c>
-      <c r="C26" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C7,original_apbi!F7, " ","(",original_apbi!D7,")")</f>
-        <v>0.033 (0.042)</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C7," ",original_soci!F7, " ","(",original_soci!D7,")")</f>
-        <v>-0.087  (0.046)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7" t="str">
-        <f>IF(original_apbi!A8="educi","Nivel educacional",0)</f>
-        <v>Nivel educacional</v>
-      </c>
-      <c r="C27" s="14" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C8,original_apbi!F8, " ","(",original_apbi!D8,")")</f>
-        <v>-0.090* (0.040)</v>
-      </c>
-      <c r="D27" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C8," ",original_soci!F8, " ","(",original_soci!D8,")")</f>
-        <v>-0.016  (0.044)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7" t="str">
-        <f>IF(original_apbi!A9="essui","Estatus social subjetivo",0)</f>
-        <v>Estatus social subjetivo</v>
-      </c>
-      <c r="C28" s="10" t="str">
-        <f>_xlfn.CONCAT(original_apbi!C9,original_apbi!F9, " ","(",original_apbi!D9,")")</f>
-        <v>0.018 (0.037)</v>
-      </c>
-      <c r="D28" s="10" t="str">
-        <f>_xlfn.CONCAT(original_soci!C9," ",original_soci!F9, " ","(",original_soci!D9,")")</f>
-        <v>0.030  (0.041)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7" t="str">
         <f>IF(original_apbi!A10="time","Tiempo de residencia",0)</f>
         <v>Tiempo de residencia</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C24" s="14" t="str">
         <f>_xlfn.CONCAT(original_apbi!C10,original_apbi!F10, " ","(",original_apbi!D10,")")</f>
         <v>0.169*** (0.039)</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D24" s="14" t="str">
         <f>_xlfn.CONCAT(original_soci!C10," ",original_soci!F10, " ","(",original_soci!D10,")")</f>
         <v>0.182 *** (0.043)</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18" t="str">
+      <c r="B25" s="54"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="str">
         <f>IF(original_apbi!A29="chisq","Chi Cuadrado",0)</f>
         <v>Chi Cuadrado</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C26" s="19">
         <f>original_apbi!B29</f>
         <v>73.583352640000001</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D26" s="19">
         <f>original_soci!B29</f>
         <v>77.132531810000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="str">
         <f>IF(original_apbi!A30="cfi","CFI",0)</f>
         <v>CFI</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C27" s="19">
         <f>original_apbi!B30</f>
         <v>0.91665440899999995</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D27" s="19">
         <f>original_soci!B30</f>
         <v>0.89408511300000004</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18" t="str">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="str">
         <f>IF(original_apbi!A31="rmsea","RMSEA",0)</f>
         <v>RMSEA</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C28" s="19">
         <f>original_apbi!B31</f>
         <v>5.9211435999999999E-2</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D28" s="19">
         <f>original_soci!B31</f>
         <v>6.1379977000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20" t="str">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20" t="str">
         <f>IF(original_apbi!A32="srmr","SRMR",0)</f>
         <v>SRMR</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C29" s="19">
         <f>original_apbi!B32</f>
         <v>0.370787647</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D29" s="19">
         <f>original_soci!B32</f>
         <v>0.38498045800000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="55" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:D35"/>
+  <mergeCells count="8">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B3"/>
@@ -3381,15 +3291,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -3408,8 +3318,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="13" t="s">
         <v>57</v>
       </c>
@@ -3506,28 +3416,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -4273,28 +4183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5024,12 +4934,12 @@
       <c r="C2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66" t="s">
         <v>595</v>
       </c>
       <c r="H2" s="56"/>
@@ -5059,8 +4969,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="13" t="s">
         <v>57</v>
       </c>
@@ -5081,10 +4991,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="15"/>
       <c r="D5" s="37"/>
       <c r="E5" s="38"/>
@@ -5186,10 +5096,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="15"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -5260,10 +5170,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="16"/>
       <c r="D12" s="43"/>
       <c r="E12" s="44"/>
@@ -5396,10 +5306,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="17"/>
       <c r="D17" s="25"/>
       <c r="E17" s="29"/>
@@ -5532,10 +5442,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="22"/>
       <c r="D22" s="47"/>
       <c r="E22" s="48"/>
@@ -5730,10 +5640,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="17"/>
       <c r="D29" s="25"/>
       <c r="E29" s="29"/>
@@ -5874,8 +5784,8 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C35" s="24"/>
@@ -5934,48 +5844,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -7253,48 +7163,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -8570,48 +8480,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
